--- a/BalanceSheet/MAA_bal.xlsx
+++ b/BalanceSheet/MAA_bal.xlsx
@@ -3861,7 +3861,7 @@
         <v>4479000000.0</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>4431000000.0</v>
+        <v>4595057000.0</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>4433432000.0</v>
@@ -3988,7 +3988,7 @@
         <v>4528000000.0</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>4502000000.0</v>
+        <v>4665598000.0</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>4476114000.0</v>
